--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/99/word_level_predictions_99.xlsx
@@ -1767,7 +1767,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem3/99/word_level_predictions_99.xlsx
@@ -1767,7 +1767,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
